--- a/Data For HW1.xlsx
+++ b/Data For HW1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wfs.uark.edu\Enterprise$\dmkletz\ISYS 4363\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4C88E4-8C16-4DB3-B70A-00866FE29509}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7ECE77-B055-4492-ADF2-695F70F409A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B3AEC954-7186-465D-87DC-35DAD95AFA5F}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -61,9 +61,6 @@
     <t>Same can be applied to individual movies</t>
   </si>
   <si>
-    <t>ex: Shang-Chi and The Ten Rings Performance as of 9/23/21</t>
-  </si>
-  <si>
     <t>If tickets sold and total box office elements are &gt; +1 STDEV, then the year performed well</t>
   </si>
   <si>
@@ -73,12 +70,6 @@
     <t>Take result of # of STDEV and multiply by .2 - multiply by .4 if using domestic numbers (individual movie) or non-inflated numbers (before 2016)</t>
   </si>
   <si>
-    <t>Domestic box office = 180,365,421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Individual movie ticket sales are usually not available - take box office / avg  ticket price in that year (in this case 180,365,421 / 9.16) = </t>
-  </si>
-  <si>
     <t>tickets sold</t>
   </si>
   <si>
@@ -98,6 +89,15 @@
   </si>
   <si>
     <t>multiply by negative .2 and .4 if number is below mean</t>
+  </si>
+  <si>
+    <t>Domestic box office = 197,151,684</t>
+  </si>
+  <si>
+    <t>ex: Shang-Chi and The Ten Rings Performance as of 9/28/21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individual movie ticket sales are usually not available - take box office / avg  ticket price in that year (in this case 197,151,684 / 9.16) = </t>
   </si>
 </sst>
 </file>
@@ -108,8 +108,8 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -219,10 +219,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -388,6 +388,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -618,12 +624,6 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -862,7 +862,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5480BA01-63D2-4552-A06E-285A550AD359}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5480BA01-63D2-4552-A06E-285A550AD359}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -889,12 +889,12 @@
     </i>
   </colItems>
   <dataFields count="3">
-    <dataField name="Average of Tickets Sold" fld="1" subtotal="average" baseField="0" baseItem="1" numFmtId="176"/>
+    <dataField name="Average of Tickets Sold" fld="1" subtotal="average" baseField="0" baseItem="1" numFmtId="165"/>
     <dataField name="Average of Total Box Office" fld="2" subtotal="average" baseField="0" baseItem="1" numFmtId="44"/>
     <dataField name="Average of Average Ticket Price" fld="4" subtotal="average" baseField="0" baseItem="1" numFmtId="44"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="16">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -903,7 +903,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -944,21 +944,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8E094141-624B-4100-806A-0ACB73FA4EE1}" name="TicketSales" displayName="TicketSales" ref="A1:E29" totalsRowCount="1" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8E094141-624B-4100-806A-0ACB73FA4EE1}" name="TicketSales" displayName="TicketSales" ref="A1:E29" totalsRowCount="1" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
   <autoFilter ref="A1:E28" xr:uid="{A3A24FE6-75CE-44B9-9AC9-85FFBCB41863}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B6579986-7949-4927-B71B-690C95ED52F6}" name="Year" totalsRowLabel="STDEV" dataDxfId="11" totalsRowDxfId="4" dataCellStyle="Hyperlink" totalsRowCellStyle="Hyperlink"/>
-    <tableColumn id="2" xr3:uid="{5631482E-F764-4511-AC18-72574071D375}" name="Tickets Sold" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="3">
-      <totalsRowFormula>_xlfn.STDEV.P(TicketSales[Tickets Sold])</totalsRowFormula>
+    <tableColumn id="1" xr3:uid="{B6579986-7949-4927-B71B-690C95ED52F6}" name="Year" totalsRowLabel="STDEV" dataDxfId="13" totalsRowDxfId="4" dataCellStyle="Hyperlink" totalsRowCellStyle="Hyperlink"/>
+    <tableColumn id="2" xr3:uid="{5631482E-F764-4511-AC18-72574071D375}" name="Tickets Sold" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="3">
+      <totalsRowFormula>_xlfn.STDEV.S(TicketSales[Tickets Sold])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C2D883F3-25A7-4947-827A-CE8F16DE86EC}" name="Total Box Office" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="2">
-      <totalsRowFormula>STDEV(TicketSales[Total Box Office])</totalsRowFormula>
+    <tableColumn id="3" xr3:uid="{C2D883F3-25A7-4947-827A-CE8F16DE86EC}" name="Total Box Office" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="2">
+      <totalsRowFormula>_xlfn.STDEV.S(TicketSales[Total Box Office])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{0920FC4B-77C2-4828-B123-F1A60F6278B6}" name="Total Inflation - Adjusted Box Office" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="1">
-      <totalsRowFormula>_xlfn.STDEV.P(TicketSales[Total Inflation - Adjusted Box Office])</totalsRowFormula>
+    <tableColumn id="4" xr3:uid="{0920FC4B-77C2-4828-B123-F1A60F6278B6}" name="Total Inflation - Adjusted Box Office" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="1">
+      <totalsRowFormula>_xlfn.STDEV.S(TicketSales[Total Inflation - Adjusted Box Office])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{696A7ABF-8AB8-458E-9546-2A2DF24D200E}" name="Average Ticket Price" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="0">
-      <totalsRowFormula>_xlfn.STDEV.P(TicketSales[Average Ticket Price])</totalsRowFormula>
+    <tableColumn id="5" xr3:uid="{696A7ABF-8AB8-458E-9546-2A2DF24D200E}" name="Average Ticket Price" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="0">
+      <totalsRowFormula>_xlfn.STDEV.S(TicketSales[Average Ticket Price])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1262,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABAC369-EFC1-468B-AE3D-55515A27B578}">
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,10 +1275,10 @@
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1295,24 +1295,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2021</v>
       </c>
       <c r="B2" s="2">
-        <v>357534674</v>
+        <v>358660716</v>
       </c>
       <c r="C2" s="3">
-        <v>3275017613</v>
+        <v>3285332155</v>
       </c>
       <c r="D2" s="3">
-        <v>3275017613</v>
+        <v>3285332155</v>
       </c>
       <c r="E2" s="4">
         <v>9.16</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
@@ -1328,11 +1328,11 @@
       <c r="E3" s="4">
         <v>9.16</v>
       </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2019</v>
       </c>
@@ -1348,11 +1348,11 @@
       <c r="E4" s="4">
         <v>9.16</v>
       </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2018</v>
       </c>
@@ -1368,14 +1368,14 @@
       <c r="E5" s="4">
         <v>9.11</v>
       </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="U5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2017</v>
       </c>
@@ -1391,11 +1391,11 @@
       <c r="E6" s="4">
         <v>8.9700000000000006</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2016</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>8.65</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2015</v>
       </c>
@@ -1428,11 +1428,11 @@
       <c r="E8" s="4">
         <v>8.43</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2014</v>
       </c>
@@ -1448,11 +1448,11 @@
       <c r="E9" s="4">
         <v>8.17</v>
       </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2013</v>
       </c>
@@ -1468,17 +1468,17 @@
       <c r="E10" s="4">
         <v>8.1300000000000008</v>
       </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="T10">
-        <v>357534674</v>
-      </c>
-      <c r="U10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="U10">
+        <v>358660716</v>
+      </c>
+      <c r="V10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2012</v>
       </c>
@@ -1494,18 +1494,18 @@
       <c r="E11" s="4">
         <v>7.96</v>
       </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-      <c r="T11" s="12">
-        <f xml:space="preserve"> 180265421/9.16</f>
-        <v>19679631.113537118</v>
-      </c>
-      <c r="U11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="U11" s="12">
+        <f xml:space="preserve"> 197151684/9.16</f>
+        <v>21523109.606986899</v>
+      </c>
+      <c r="V11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2011</v>
       </c>
@@ -1521,15 +1521,15 @@
       <c r="E12" s="4">
         <v>7.93</v>
       </c>
-      <c r="T12">
-        <f>_xlfn.STDEV.P(T10:T11)</f>
-        <v>168927521.44323143</v>
-      </c>
-      <c r="U12" t="s">
+      <c r="U12">
+        <f>_xlfn.STDEV.S(U10:U11)</f>
+        <v>238392287.67350072</v>
+      </c>
+      <c r="V12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2010</v>
       </c>
@@ -1545,15 +1545,15 @@
       <c r="E13" s="4">
         <v>7.89</v>
       </c>
-      <c r="T13" s="8">
-        <f>T12/T11</f>
-        <v>8.5838764186504743</v>
-      </c>
-      <c r="U13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U13" s="8">
+        <f>U12/U11</f>
+        <v>11.076108054391595</v>
+      </c>
+      <c r="V13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2009</v>
       </c>
@@ -1569,15 +1569,15 @@
       <c r="E14" s="4">
         <v>7.5</v>
       </c>
-      <c r="T14" s="8">
-        <f>T13*-0.4</f>
-        <v>-3.4335505674601898</v>
-      </c>
-      <c r="U14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U14" s="8">
+        <f>U13*-0.4</f>
+        <v>-4.4304432217566383</v>
+      </c>
+      <c r="V14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2008</v>
       </c>
@@ -1593,15 +1593,15 @@
       <c r="E15" s="4">
         <v>7.18</v>
       </c>
-      <c r="T15" s="11">
-        <f>T14+9.16</f>
-        <v>5.7264494325398108</v>
-      </c>
-      <c r="U15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U15" s="11">
+        <f>U14+9.16</f>
+        <v>4.7295567782433618</v>
+      </c>
+      <c r="V15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2007</v>
       </c>
@@ -1827,20 +1827,20 @@
         <v>8</v>
       </c>
       <c r="B29" s="5">
-        <f>_xlfn.STDEV.P(TicketSales[Tickets Sold])</f>
-        <v>295939778.73848569</v>
+        <f>_xlfn.STDEV.S(TicketSales[Tickets Sold])</f>
+        <v>301443737.02880561</v>
       </c>
       <c r="C29" s="6">
-        <f>STDEV(TicketSales[Total Box Office])</f>
-        <v>2530008979.269475</v>
+        <f>_xlfn.STDEV.S(TicketSales[Total Box Office])</f>
+        <v>2529142382.7810068</v>
       </c>
       <c r="D29" s="6">
-        <f>_xlfn.STDEV.P(TicketSales[Total Inflation - Adjusted Box Office])</f>
-        <v>2710807589.3801088</v>
+        <f>_xlfn.STDEV.S(TicketSales[Total Inflation - Adjusted Box Office])</f>
+        <v>2761223832.7107882</v>
       </c>
       <c r="E29" s="4">
-        <f>_xlfn.STDEV.P(TicketSales[Average Ticket Price])</f>
-        <v>1.5990635977267316</v>
+        <f>_xlfn.STDEV.S(TicketSales[Average Ticket Price])</f>
+        <v>1.6295246890583501</v>
       </c>
     </row>
   </sheetData>
@@ -1886,7 +1886,7 @@
   <dimension ref="A3:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
